--- a/sukowinangun/masuk/modul/mod_lapstok/stok_opname_bulanan.xlsx
+++ b/sukowinangun/masuk/modul/mod_lapstok/stok_opname_bulanan.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t xml:space="preserve">STOK OPNAME BULANAN </t>
   </si>
   <si>
-    <t>Tanggal: 03 September 2025 s/d d  unde</t>
+    <t>Tanggal: 03 Juni 2025 s/d d  unde</t>
   </si>
   <si>
     <t>No.</t>
@@ -53,112 +53,55 @@
     <t>Acc Manager</t>
   </si>
   <si>
-    <t>'022</t>
-  </si>
-  <si>
-    <t>clevo susu</t>
-  </si>
-  <si>
-    <t>btl</t>
-  </si>
-  <si>
-    <t>3,500</t>
-  </si>
-  <si>
-    <t>12:36:37</t>
-  </si>
-  <si>
-    <t>'8991102800020</t>
-  </si>
-  <si>
-    <t>Kiranti Sehat Datang Bulan 150ml</t>
-  </si>
-  <si>
-    <t>Btl</t>
-  </si>
-  <si>
-    <t>7,000</t>
-  </si>
-  <si>
-    <t>'11590</t>
-  </si>
-  <si>
-    <t>Larutan Cap Kaki Tiga Anak 200ml</t>
-  </si>
-  <si>
-    <t>6,000</t>
-  </si>
-  <si>
-    <t>'11004</t>
-  </si>
-  <si>
-    <t>Larutan Cap Kaki Tiga Kaleng 320ml (Semua Rasa)</t>
-  </si>
-  <si>
-    <t>BTL</t>
-  </si>
-  <si>
-    <t>'112351</t>
-  </si>
-  <si>
-    <t>LE MINERAL 600ML</t>
+    <t>'0002054561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alprazolam </t>
+  </si>
+  <si>
+    <t>strip</t>
+  </si>
+  <si>
+    <t>65,000</t>
+  </si>
+  <si>
+    <t>21:22:46</t>
+  </si>
+  <si>
+    <t>'003215364168547</t>
+  </si>
+  <si>
+    <t>Analsik tablet/biji psikotropika</t>
+  </si>
+  <si>
+    <t>3,450</t>
+  </si>
+  <si>
+    <t>'11425255</t>
+  </si>
+  <si>
+    <t>BRAXIDIN TAB/BIJI PSIKOTROPIKA</t>
+  </si>
+  <si>
+    <t>4,500</t>
+  </si>
+  <si>
+    <t>'7854621</t>
+  </si>
+  <si>
+    <t>CODEIN TABLET (NARKOTIKA)/BIJIAN</t>
+  </si>
+  <si>
+    <t>blister</t>
+  </si>
+  <si>
+    <t>'9485</t>
+  </si>
+  <si>
+    <t>VALISANBE 2 MG (PSIKOTROPIKA)</t>
   </si>
   <si>
     <t>3,000</t>
-  </si>
-  <si>
-    <t>'12345</t>
-  </si>
-  <si>
-    <t>MILO SUSU CAIR</t>
-  </si>
-  <si>
-    <t>PCS</t>
-  </si>
-  <si>
-    <t>4,500</t>
-  </si>
-  <si>
-    <t>'1111117788</t>
-  </si>
-  <si>
-    <t>MIZONE MINUMAN</t>
-  </si>
-  <si>
-    <t>5,000</t>
-  </si>
-  <si>
-    <t>'22072</t>
-  </si>
-  <si>
-    <t>Pocari Sweat 350ml</t>
-  </si>
-  <si>
-    <t>7,500</t>
-  </si>
-  <si>
-    <t>'30281</t>
-  </si>
-  <si>
-    <t>susu beruang</t>
-  </si>
-  <si>
-    <t>11,000</t>
-  </si>
-  <si>
-    <t>'20035</t>
-  </si>
-  <si>
-    <t>Teh Pucuk</t>
-  </si>
-  <si>
-    <t>'20002</t>
-  </si>
-  <si>
-    <t>You C 1000 Orange 140 ml</t>
-  </si>
-  <si>
-    <t>8,000</t>
   </si>
 </sst>
 </file>
@@ -215,8 +158,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve" id="1" name="Table1" displayName="Table1" ref="A4:J16" headerRowCount="1" totalsRowCount="0">
-  <autoFilter ref="A4:J16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve" id="1" name="Table1" displayName="Table1" ref="A4:J10" headerRowCount="1" totalsRowCount="0">
+  <autoFilter ref="A4:J10"/>
   <tableColumns count="10">
     <tableColumn id="1" name="No."/>
     <tableColumn id="2" name="Kode"/>
@@ -523,16 +466,16 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="56.558" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="19.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="38.848" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="17.567" bestFit="true" customWidth="true" style="0"/>
@@ -598,7 +541,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="1">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -621,15 +564,15 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1">
-        <v>9</v>
+        <v>160</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>16</v>
@@ -641,21 +584,21 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="1">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>16</v>
@@ -667,21 +610,21 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
       <c r="E8" s="1">
-        <v>10</v>
+        <v>524</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>16</v>
@@ -693,182 +636,26 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="1">
-        <v>18</v>
+        <v>474</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J9"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="1">
-        <v>12</v>
-      </c>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="1">
-        <v>4</v>
-      </c>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="1">
-        <v>12</v>
-      </c>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15"/>
     </row>
   </sheetData>
   <mergeCells>
